--- a/Samples/objectimport.xlsx
+++ b/Samples/objectimport.xlsx
@@ -425,23 +425,23 @@
   <dimension ref="A1:M1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M16" activeCellId="0" sqref="M16"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="2:2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="7.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="7.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="23.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="16.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="22.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="22.7"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -939,12 +939,12 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="2:2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.01"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1035,10 +1035,10 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="2:2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">

--- a/Samples/objectimport.xlsx
+++ b/Samples/objectimport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="90">
   <si>
     <t xml:space="preserve">Position</t>
   </si>
@@ -84,9 +84,6 @@
     <t xml:space="preserve">amount</t>
   </si>
   <si>
-    <t xml:space="preserve">int64 </t>
-  </si>
-  <si>
     <t xml:space="preserve">signed 64 bit (a.k.a long)</t>
   </si>
   <si>
@@ -96,7 +93,7 @@
     <t xml:space="preserve">number </t>
   </si>
   <si>
-    <t xml:space="preserve">float </t>
+    <t xml:space="preserve">double</t>
   </si>
   <si>
     <t xml:space="preserve">1.0</t>
@@ -132,178 +129,169 @@
     <t xml:space="preserve">string </t>
   </si>
   <si>
+    <t xml:space="preserve">A string sample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">two</t>
+  </si>
+  <si>
+    <t xml:space="preserve">byte </t>
+  </si>
+  <si>
+    <t xml:space="preserve">U3dhZ2dlciByb2Nrcw==</t>
+  </si>
+  <si>
+    <t xml:space="preserve">base64 encoded characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">three</t>
+  </si>
+  <si>
+    <t xml:space="preserve">binary </t>
+  </si>
+  <si>
+    <t xml:space="preserve">any sequence of octets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">four</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean </t>
+  </si>
+  <si>
+    <t xml:space="preserve">five</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'^\d{3}-\d{2}-\d{4}$'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1998-12-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As defined by full-date - RFC3339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">six</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date-time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-10-12T07:20:50.52Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As defined by date-time - RFC3339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asecret</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A hint to UIs to obscure input.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes,No,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIMESTMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">These types from DBDatatype must be mapped in the mapping.json. Oastype would overwrite it if not empty.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database type CHAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eleven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database type DATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">twelve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMALLINT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database type SMALLINT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thirteen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VARCHAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database type VARCHAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fourteen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DECIMAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database type DECIMAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fifteen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTEGER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database type INTEGER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">secondName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wrongtype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a wrongly typed datatype which is ignored and type string is used instead.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thirdName</t>
+  </si>
+  <si>
     <t xml:space="preserve">string</t>
   </si>
   <si>
-    <t xml:space="preserve">eins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">two</t>
-  </si>
-  <si>
-    <t xml:space="preserve">byte </t>
-  </si>
-  <si>
-    <t xml:space="preserve">byte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">base64 encoded characters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">three</t>
-  </si>
-  <si>
-    <t xml:space="preserve">binary </t>
-  </si>
-  <si>
-    <t xml:space="preserve">binary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">any sequence of octets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">four</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean </t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">five</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yyyy-mm-dd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1998-12-31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As defined by full-date - RFC3339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">six</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date-time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-10-12T07:20:50.52Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As defined by date-time - RFC3339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asecret</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A hint to UIs to obscure input.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes,No,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIMESTMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">These types from DBDatatype must be mapped in the mapping.json. Oastype would overwrite it if not empty.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Database type CHAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eleven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Database type DATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">twelve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMALLINT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Database type SMALLINT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thirteen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VARCHAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Database type VARCHAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fourteen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DECIMAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Database type DECIMAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fifteen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INTEGER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Database type INTEGER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die Beschreibung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zweiterName3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Noch eine Beschreibung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dritter Name3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die dritte Beschreibung.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zweiterName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dritter Name</t>
+    <t xml:space="preserve">Another description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yet another description.</t>
   </si>
 </sst>
 </file>
@@ -424,18 +412,18 @@
   </sheetPr>
   <dimension ref="A1:M1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="2:2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.66015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="7.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="23.74"/>
@@ -525,7 +513,7 @@
         <v>14</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>3</v>
@@ -540,7 +528,7 @@
         <v>17</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -548,28 +536,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="E4" s="0" t="s">
         <v>23</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>24</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="0" t="s">
         <v>25</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -577,54 +565,54 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="K5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="0" t="s">
         <v>29</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>31</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>32</v>
       </c>
       <c r="I6" s="2"/>
       <c r="L6" s="0" t="s">
         <v>17</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="I7" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="K7" s="0" t="s">
         <v>16</v>
@@ -635,59 +623,54 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="0" t="s">
+      <c r="K8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="0" t="s">
         <v>39</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="M8" s="0" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="K9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="0" t="s">
         <v>42</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K9" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="L9" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="M9" s="0" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>16</v>
@@ -701,22 +684,25 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>51</v>
+        <v>46</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>10</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K11" s="0" t="s">
         <v>16</v>
@@ -725,21 +711,21 @@
         <v>17</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K12" s="0" t="s">
         <v>16</v>
@@ -748,21 +734,21 @@
         <v>17</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K13" s="0" t="s">
         <v>16</v>
@@ -771,21 +757,21 @@
         <v>17</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K14" s="0" t="s">
         <v>16</v>
@@ -794,32 +780,29 @@
         <v>16</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="L15" s="0" t="s">
         <v>16</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G16" s="0" t="n">
         <v>1</v>
@@ -828,32 +811,32 @@
         <v>16</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L17" s="0" t="s">
         <v>16</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G18" s="0" t="n">
         <v>1</v>
@@ -862,15 +845,15 @@
         <v>16</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G19" s="0" t="n">
         <v>1</v>
@@ -879,35 +862,35 @@
         <v>16</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L20" s="0" t="s">
         <v>16</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="L21" s="0" t="s">
         <v>16</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -936,13 +919,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1048576"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="2:2"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.66015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.01"/>
   </cols>
@@ -957,14 +940,17 @@
       <c r="C1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
@@ -975,47 +961,49 @@
         <v>14</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>16</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1032,13 +1020,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="2:2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.66015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1050,14 +1038,17 @@
       <c r="C1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
@@ -1068,47 +1059,49 @@
         <v>14</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>16</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
